--- a/HDB/KQKD.xlsx
+++ b/HDB/KQKD.xlsx
@@ -1590,238 +1590,238 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>259035</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>277262</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1244</t>
+          <t>1244199</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1206</t>
+          <t>1206097</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1335</t>
+          <t>1334909</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>1519</t>
+          <t>1518507</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1811</t>
+          <t>1811196</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>1773</t>
+          <t>1773429</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>1956</t>
+          <t>1955673</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2427</t>
+          <t>2426913</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2747</t>
+          <t>2747242</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>2931</t>
+          <t>2931153</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>3281</t>
+          <t>3280553</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>3419</t>
+          <t>3418804</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>3604</t>
+          <t>3604475</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>3998</t>
+          <t>3998059</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>3938</t>
+          <t>3937743</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>3935</t>
+          <t>3934542</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>4082</t>
+          <t>4082051</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>4190</t>
+          <t>4189507</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>4742</t>
+          <t>4742202</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>4441</t>
+          <t>4441050</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>4785</t>
+          <t>4784781</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>4973</t>
+          <t>4972939</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>5419</t>
+          <t>5419297</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>5452</t>
+          <t>5452225</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>5438</t>
+          <t>5437647</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>6035</t>
+          <t>6034635</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>6213</t>
+          <t>6212739</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>6340</t>
+          <t>6339908</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>6594</t>
+          <t>6593587</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>6469</t>
+          <t>6468666</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>6774</t>
+          <t>6774049</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>7181</t>
+          <t>7181161</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>8080</t>
+          <t>8079518</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>8287</t>
+          <t>8287175</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>9776</t>
+          <t>9775550</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>11019</t>
+          <t>11018875</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>12671</t>
+          <t>12671355</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>13391</t>
+          <t>13390888</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>15559</t>
+          <t>15559459</t>
         </is>
       </c>
       <c r="AR8" t="inlineStr">
         <is>
-          <t>14379</t>
+          <t>14378929</t>
         </is>
       </c>
       <c r="AS8" t="inlineStr">
         <is>
-          <t>14245</t>
+          <t>14245165</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr">
         <is>
-          <t>14222</t>
+          <t>14221978</t>
         </is>
       </c>
       <c r="AU8" t="inlineStr">
         <is>
-          <t>15149</t>
+          <t>15148773</t>
         </is>
       </c>
       <c r="AV8" t="inlineStr">
         <is>
-          <t>14992</t>
+          <t>14991720</t>
         </is>
       </c>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>17990</t>
+          <t>17989705</t>
         </is>
       </c>
     </row>
@@ -1833,238 +1833,238 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>241775</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>255011</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1114</t>
+          <t>1113791</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1211</t>
+          <t>1211363</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1109</t>
+          <t>1108730</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>1200</t>
+          <t>1199786</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1130</t>
+          <t>1129902</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>1059</t>
+          <t>1058790</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>1177</t>
+          <t>1177298</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>1406</t>
+          <t>1405988</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>1574</t>
+          <t>1574437</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>1755</t>
+          <t>1754746</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1903</t>
+          <t>1903018</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>2063</t>
+          <t>2062707</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2194</t>
+          <t>2194451</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>2134</t>
+          <t>2134173</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>2193</t>
+          <t>2192925</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>2103</t>
+          <t>2103102</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>2198</t>
+          <t>2197669</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>2421</t>
+          <t>2420801</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>2581</t>
+          <t>2581037</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>2411</t>
+          <t>2411140</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2461</t>
+          <t>2461040</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2468</t>
+          <t>2468069</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2531</t>
+          <t>2531263</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>2569</t>
+          <t>2568628</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>2657</t>
+          <t>2657283</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>3013</t>
+          <t>3013052</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>3001</t>
+          <t>3000578</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>2977</t>
+          <t>2977110</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>3125</t>
+          <t>3124886</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>3162</t>
+          <t>3162384</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>3021</t>
+          <t>3021053</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>3138</t>
+          <t>3137770</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>3528</t>
+          <t>3528293</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>3802</t>
+          <t>3802325</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>4843</t>
+          <t>4843448</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>6178</t>
+          <t>6178067</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>7717</t>
+          <t>7716840</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>8475</t>
+          <t>8474740</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>8087</t>
+          <t>8086956</t>
         </is>
       </c>
       <c r="AR9" t="inlineStr">
         <is>
-          <t>7219</t>
+          <t>7218579</t>
         </is>
       </c>
       <c r="AS9" t="inlineStr">
         <is>
-          <t>6525</t>
+          <t>6525287</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr">
         <is>
-          <t>6449</t>
+          <t>6448533</t>
         </is>
       </c>
       <c r="AU9" t="inlineStr">
         <is>
-          <t>6946</t>
+          <t>6946053</t>
         </is>
       </c>
       <c r="AV9" t="inlineStr">
         <is>
-          <t>7584</t>
+          <t>7583620</t>
         </is>
       </c>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>8171</t>
+          <t>8170547</t>
         </is>
       </c>
     </row>
@@ -2076,238 +2076,238 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>17260</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>22251</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>130408</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>-5</t>
+          <t>-5266</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>226179</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>318721</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>681</t>
+          <t>681294</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>715</t>
+          <t>714639</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>778</t>
+          <t>778375</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>1021</t>
+          <t>1020925</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>1173</t>
+          <t>1172805</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>1176</t>
+          <t>1176407</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>1378</t>
+          <t>1377535</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>1356</t>
+          <t>1356097</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>1410</t>
+          <t>1410024</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>1864</t>
+          <t>1863886</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>1745</t>
+          <t>1744818</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>1831</t>
+          <t>1831440</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>1884</t>
+          <t>1884382</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>1769</t>
+          <t>1768706</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>2161</t>
+          <t>2161165</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>2030</t>
+          <t>2029910</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2324</t>
+          <t>2323741</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2505</t>
+          <t>2504870</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2888</t>
+          <t>2888034</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>2884</t>
+          <t>2883597</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>2780</t>
+          <t>2780364</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>3022</t>
+          <t>3021583</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>3212</t>
+          <t>3212161</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>3363</t>
+          <t>3362798</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>3469</t>
+          <t>3468701</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>3306</t>
+          <t>3306282</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>3753</t>
+          <t>3752996</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>4043</t>
+          <t>4043391</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>4551</t>
+          <t>4551225</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>4485</t>
+          <t>4484850</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>4932</t>
+          <t>4932102</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>4841</t>
+          <t>4840808</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>4955</t>
+          <t>4954515</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>4916</t>
+          <t>4916148</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>7473</t>
+          <t>7472503</t>
         </is>
       </c>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>7160</t>
+          <t>7160350</t>
         </is>
       </c>
       <c r="AS10" t="inlineStr">
         <is>
-          <t>7720</t>
+          <t>7719878</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr">
         <is>
-          <t>7773</t>
+          <t>7773445</t>
         </is>
       </c>
       <c r="AU10" t="inlineStr">
         <is>
-          <t>8203</t>
+          <t>8202720</t>
         </is>
       </c>
       <c r="AV10" t="inlineStr">
         <is>
-          <t>7408</t>
+          <t>7408100</t>
         </is>
       </c>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>9819</t>
+          <t>9819158</t>
         </is>
       </c>
     </row>
@@ -2319,238 +2319,238 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>36970</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>18354</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11671</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>16064</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>22067</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>52549</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>44859</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>229646</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>75386</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>39051</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>43019</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>55442</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>48750</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>56903</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>64382</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>53125</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>98893</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>130078</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>135663</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>142382</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>132926</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>174771</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>192044</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>193122</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>231492</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>213642</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>218143</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>292532</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>363957</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>346529</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>594</t>
+          <t>593670</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>377</t>
+          <t>376740</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>811</t>
+          <t>810794</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>666</t>
+          <t>665634</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>917</t>
+          <t>916555</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>790</t>
+          <t>790195</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>936</t>
+          <t>936071</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>770</t>
+          <t>769603</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>791</t>
+          <t>790742</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>444</t>
+          <t>444169</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>826</t>
+          <t>825654</t>
         </is>
       </c>
       <c r="AR11" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>512447</t>
         </is>
       </c>
       <c r="AS11" t="inlineStr">
         <is>
-          <t>876</t>
+          <t>876036</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr">
         <is>
-          <t>946</t>
+          <t>946414</t>
         </is>
       </c>
       <c r="AU11" t="inlineStr">
         <is>
-          <t>961</t>
+          <t>961068</t>
         </is>
       </c>
       <c r="AV11" t="inlineStr">
         <is>
-          <t>1177</t>
+          <t>1177239</t>
         </is>
       </c>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>1874</t>
+          <t>1874020</t>
         </is>
       </c>
     </row>
@@ -2562,238 +2562,238 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>947</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2176</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4891</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>6190</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6777</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>11257</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10902</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11972</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12729</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11735</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>13030</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13896</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19572</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>24638</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13781</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>18015</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>25622</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>19199</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>21086</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>26941</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>35649</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>32923</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>47871</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>44005</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>70754</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>55532</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>76101</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>-36</t>
+          <t>-36320</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>42978</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>33108</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>49698</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>47826</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>69663</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>57349</t>
         </is>
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>81312</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>96922</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>116054</t>
         </is>
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>92408</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>189878</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>126210</t>
         </is>
       </c>
       <c r="AQ12" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>233870</t>
         </is>
       </c>
       <c r="AR12" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>155685</t>
         </is>
       </c>
       <c r="AS12" t="inlineStr">
         <is>
-          <t>651</t>
+          <t>651467</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr">
         <is>
-          <t>534</t>
+          <t>534304</t>
         </is>
       </c>
       <c r="AU12" t="inlineStr">
         <is>
-          <t>538</t>
+          <t>537589</t>
         </is>
       </c>
       <c r="AV12" t="inlineStr">
         <is>
-          <t>444</t>
+          <t>443949</t>
         </is>
       </c>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>542</t>
+          <t>542460</t>
         </is>
       </c>
     </row>
@@ -2805,238 +2805,238 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>36023</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>16178</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6780</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9873</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>15289</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>41292</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>33957</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>217674</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>62657</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>27316</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>29989</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>41546</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>29178</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>32265</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>50601</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>35110</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>73271</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>110879</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>114577</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>115441</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>97277</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>141848</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>144173</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>149117</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>160738</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>158110</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>142042</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>328852</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>320979</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>313421</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>544</t>
+          <t>543972</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>328914</t>
         </is>
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>741</t>
+          <t>741131</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
-          <t>608</t>
+          <t>608285</t>
         </is>
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>835</t>
+          <t>835243</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>693</t>
+          <t>693273</t>
         </is>
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>820</t>
+          <t>820017</t>
         </is>
       </c>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>677</t>
+          <t>677195</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>601</t>
+          <t>600864</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>317959</t>
         </is>
       </c>
       <c r="AQ13" t="inlineStr">
         <is>
-          <t>592</t>
+          <t>591784</t>
         </is>
       </c>
       <c r="AR13" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>356762</t>
         </is>
       </c>
       <c r="AS13" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>224569</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>412110</t>
         </is>
       </c>
       <c r="AU13" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>423479</t>
         </is>
       </c>
       <c r="AV13" t="inlineStr">
         <is>
-          <t>733</t>
+          <t>733290</t>
         </is>
       </c>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>1332</t>
+          <t>1331560</t>
         </is>
       </c>
     </row>
@@ -3048,238 +3048,238 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>9089</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>4315</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>-3906</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>-6</t>
+          <t>-5972</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>-25</t>
+          <t>-24633</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11768</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>277</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>8293</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>9340</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>46400</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>52126</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>44123</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>56907</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>34006</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>56288</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>32138</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>7481</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>22698</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>55020</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>51052</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>169545</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>94380</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>80905</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-296</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>54814</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>24920</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>18928</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>30484</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>93324</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>24324</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>42453</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>20574</t>
         </is>
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>91897</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>22999</t>
         </is>
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>80329</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>96502</t>
         </is>
       </c>
       <c r="AM14" t="inlineStr">
         <is>
-          <t>-66</t>
+          <t>-65593</t>
         </is>
       </c>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>-50</t>
+          <t>-49550</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>145057</t>
         </is>
       </c>
       <c r="AP14" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>185863</t>
         </is>
       </c>
       <c r="AQ14" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>283333</t>
         </is>
       </c>
       <c r="AR14" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>174886</t>
         </is>
       </c>
       <c r="AS14" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>310407</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>123899</t>
         </is>
       </c>
       <c r="AU14" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>234621</t>
         </is>
       </c>
       <c r="AV14" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>188241</t>
         </is>
       </c>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>423977</t>
         </is>
       </c>
     </row>
@@ -3295,7 +3295,7 @@
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>15671</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
@@ -3303,202 +3303,202 @@
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1965</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>719</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>20596</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>-17</t>
+          <t>-16569</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>33356</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>45120</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>-1452</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3898</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>5234</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>-1972</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>83317</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>26835</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>16069</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>-1885</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>29805</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>-2674</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>14105</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>39223</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>63695</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>4212</t>
         </is>
       </c>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>-17</t>
+          <t>-17173</t>
         </is>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>54445</t>
         </is>
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19782</t>
         </is>
       </c>
       <c r="AG15" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>54977</t>
         </is>
       </c>
       <c r="AH15" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>35667</t>
         </is>
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>-9</t>
+          <t>-9494</t>
         </is>
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>38285</t>
         </is>
       </c>
       <c r="AK15" t="inlineStr">
         <is>
-          <t>-13</t>
+          <t>-12837</t>
         </is>
       </c>
       <c r="AL15" t="inlineStr">
         <is>
-          <t>-9</t>
+          <t>-8813</t>
         </is>
       </c>
       <c r="AM15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>351</t>
         </is>
       </c>
       <c r="AN15" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>27963</t>
         </is>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>75910</t>
         </is>
       </c>
       <c r="AP15" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>29936</t>
         </is>
       </c>
       <c r="AQ15" t="inlineStr">
         <is>
-          <t>-92</t>
+          <t>-92086</t>
         </is>
       </c>
       <c r="AR15" t="inlineStr">
         <is>
-          <t>-79</t>
+          <t>-78664</t>
         </is>
       </c>
       <c r="AS15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-279</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>141710</t>
         </is>
       </c>
       <c r="AU15" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>6162</t>
         </is>
       </c>
       <c r="AV15" t="inlineStr">
         <is>
-          <t>389</t>
+          <t>389280</t>
         </is>
       </c>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>241355</t>
         </is>
       </c>
     </row>
@@ -3513,227 +3513,227 @@
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>28788</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>111596</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9724</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>62471</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>28324</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>-41</t>
+          <t>-41345</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3225</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7885</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>20065</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>5341</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>117868</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>43105</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>117189</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>342925</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>-18</t>
+          <t>-18323</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>160114</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>166928</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>8126</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>6348</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>128076</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>33535</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>75491</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2847</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>-32</t>
+          <t>-32218</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>119040</t>
         </is>
       </c>
       <c r="AD16" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>28065</t>
         </is>
       </c>
       <c r="AE16" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>24922</t>
         </is>
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>396</t>
+          <t>396401</t>
         </is>
       </c>
       <c r="AG16" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>55665</t>
         </is>
       </c>
       <c r="AH16" t="inlineStr">
         <is>
-          <t>-12</t>
+          <t>-11835</t>
         </is>
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>36982</t>
         </is>
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>308663</t>
         </is>
       </c>
       <c r="AK16" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>19346</t>
         </is>
       </c>
       <c r="AL16" t="inlineStr">
         <is>
-          <t>-12</t>
+          <t>-11513</t>
         </is>
       </c>
       <c r="AM16" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>-3876</t>
         </is>
       </c>
       <c r="AN16" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>24161</t>
         </is>
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>515</t>
+          <t>515414</t>
         </is>
       </c>
       <c r="AP16" t="inlineStr">
         <is>
-          <t>516</t>
+          <t>516324</t>
         </is>
       </c>
       <c r="AQ16" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>111106</t>
         </is>
       </c>
       <c r="AR16" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>65351</t>
         </is>
       </c>
       <c r="AS16" t="inlineStr">
         <is>
-          <t>-50</t>
+          <t>-49917</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr">
         <is>
-          <t>-89</t>
+          <t>-88800</t>
         </is>
       </c>
       <c r="AU16" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>141619</t>
         </is>
       </c>
       <c r="AV16" t="inlineStr">
         <is>
-          <t>-17</t>
+          <t>-16744</t>
         </is>
       </c>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19526</t>
         </is>
       </c>
     </row>
@@ -3745,238 +3745,238 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2648</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>367</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>171846</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-22</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12676</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>14036</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10771</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7889</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9679</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>40102</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>17284</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>25035</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>127761</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>27145</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>67999</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>128246</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>147223</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>87853</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>95610</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>133582</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>229745</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>51686</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>137438</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>118900</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>196880</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>59010</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>143637</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>124512</t>
         </is>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>302934</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>80131</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>121968</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>85251</t>
         </is>
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>208925</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>119619</t>
         </is>
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>144321</t>
         </is>
       </c>
       <c r="AL17" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>160239</t>
         </is>
       </c>
       <c r="AM17" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>163947</t>
         </is>
       </c>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>143711</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>129369</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>118848</t>
         </is>
       </c>
       <c r="AQ17" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>149716</t>
         </is>
       </c>
       <c r="AR17" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>107688</t>
         </is>
       </c>
       <c r="AS17" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>140389</t>
         </is>
       </c>
       <c r="AT17" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>163363</t>
         </is>
       </c>
       <c r="AU17" t="inlineStr">
         <is>
-          <t>458</t>
+          <t>458422</t>
         </is>
       </c>
       <c r="AV17" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>560161</t>
         </is>
       </c>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>-212</t>
+          <t>-211628</t>
         </is>
       </c>
     </row>
@@ -3999,227 +3999,227 @@
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>219</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>7065</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1195</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3309</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>11428</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5580</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5923</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>30405</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6676</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7870</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>49070</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>5078</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>36856</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5959</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>26037</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>15715</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5535</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>30561</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4818</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9973</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>36617</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>-9</t>
+          <t>-8851</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>-1118</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>6269</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>13104</t>
         </is>
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>47795</t>
         </is>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>44082</t>
         </is>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>28391</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>33725</t>
         </is>
       </c>
       <c r="AH18" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>58920</t>
         </is>
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>192602</t>
         </is>
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>21059</t>
         </is>
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>40608</t>
         </is>
       </c>
       <c r="AL18" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>20267</t>
         </is>
       </c>
       <c r="AM18" t="inlineStr">
         <is>
-          <t>-22</t>
+          <t>-21898</t>
         </is>
       </c>
       <c r="AN18" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>12105</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7738</t>
         </is>
       </c>
       <c r="AP18" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3951</t>
         </is>
       </c>
       <c r="AQ18" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>258697</t>
         </is>
       </c>
       <c r="AR18" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>34308</t>
         </is>
       </c>
       <c r="AS18" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>52031</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12779</t>
         </is>
       </c>
       <c r="AU18" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>64873</t>
         </is>
       </c>
       <c r="AV18" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>81344</t>
         </is>
       </c>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>60710</t>
         </is>
       </c>
     </row>
@@ -4231,238 +4231,238 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2647</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>367</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>171627</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>-7</t>
+          <t>-7086</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>11481</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10727</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>-657</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2309</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3756</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9697</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10608</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>17165</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>78691</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>22067</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>31143</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>122287</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>121186</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>72138</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>90075</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>103021</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>224927</t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>41713</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>100821</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>127751</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>197998</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>52741</t>
         </is>
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>130533</t>
         </is>
       </c>
       <c r="AD19" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>76717</t>
         </is>
       </c>
       <c r="AE19" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>258852</t>
         </is>
       </c>
       <c r="AF19" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>51740</t>
         </is>
       </c>
       <c r="AG19" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>88243</t>
         </is>
       </c>
       <c r="AH19" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>26331</t>
         </is>
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>16323</t>
         </is>
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>98560</t>
         </is>
       </c>
       <c r="AK19" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>103713</t>
         </is>
       </c>
       <c r="AL19" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>139972</t>
         </is>
       </c>
       <c r="AM19" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>185845</t>
         </is>
       </c>
       <c r="AN19" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>131606</t>
         </is>
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>121631</t>
         </is>
       </c>
       <c r="AP19" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>114897</t>
         </is>
       </c>
       <c r="AQ19" t="inlineStr">
         <is>
-          <t>-109</t>
+          <t>-108981</t>
         </is>
       </c>
       <c r="AR19" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>73380</t>
         </is>
       </c>
       <c r="AS19" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>88358</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>150584</t>
         </is>
       </c>
       <c r="AU19" t="inlineStr">
         <is>
-          <t>394</t>
+          <t>393549</t>
         </is>
       </c>
       <c r="AV19" t="inlineStr">
         <is>
-          <t>479</t>
+          <t>478817</t>
         </is>
       </c>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>-272</t>
+          <t>-272338</t>
         </is>
       </c>
     </row>
@@ -4474,106 +4474,106 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>9000</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>949</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>820</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>115782</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>26116</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2292</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>13331</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>16783</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>454</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>128020</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8810</t>
         </is>
       </c>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>495</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>43098</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>37</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>250</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>22431</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>26111</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>53618</t>
         </is>
       </c>
       <c r="W20" t="inlineStr"/>
       <c r="X20" t="inlineStr"/>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>27069</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr"/>
@@ -4581,7 +4581,7 @@
       <c r="AB20" t="inlineStr"/>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>260</t>
         </is>
       </c>
       <c r="AD20" t="inlineStr"/>
@@ -4592,25 +4592,25 @@
       <c r="AI20" t="inlineStr"/>
       <c r="AJ20" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2252</t>
         </is>
       </c>
       <c r="AK20" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4533</t>
         </is>
       </c>
       <c r="AL20" t="inlineStr"/>
       <c r="AM20" t="inlineStr"/>
       <c r="AN20" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>5224</t>
         </is>
       </c>
       <c r="AO20" t="inlineStr"/>
       <c r="AP20" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>4101</t>
         </is>
       </c>
       <c r="AQ20" t="inlineStr"/>
@@ -4618,22 +4618,22 @@
       <c r="AS20" t="inlineStr"/>
       <c r="AT20" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>22024</t>
         </is>
       </c>
       <c r="AU20" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>45980</t>
         </is>
       </c>
       <c r="AV20" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>23569</t>
         </is>
       </c>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>72649</t>
         </is>
       </c>
     </row>
@@ -4645,238 +4645,238 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>29957</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>32427</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>212386</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>134158</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>236793</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>409</t>
+          <t>408874</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>475</t>
+          <t>474916</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>577</t>
+          <t>577269</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>600</t>
+          <t>599775</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>700006</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>769</t>
+          <t>769277</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>831</t>
+          <t>831101</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>992</t>
+          <t>992130</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>894</t>
+          <t>893980</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>990128</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>1051</t>
+          <t>1051472</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>1158</t>
+          <t>1158046</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>1009</t>
+          <t>1009080</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>1100</t>
+          <t>1099993</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>1148</t>
+          <t>1148111</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>1184</t>
+          <t>1184272</t>
         </is>
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>1137</t>
+          <t>1137368</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>1293</t>
+          <t>1292906</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>1284</t>
+          <t>1284028</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>1366</t>
+          <t>1366195</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>1608</t>
+          <t>1607759</t>
         </is>
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>1130</t>
+          <t>1130489</t>
         </is>
       </c>
       <c r="AD21" t="inlineStr">
         <is>
-          <t>1562</t>
+          <t>1562467</t>
         </is>
       </c>
       <c r="AE21" t="inlineStr">
         <is>
-          <t>1872</t>
+          <t>1872114</t>
         </is>
       </c>
       <c r="AF21" t="inlineStr">
         <is>
-          <t>1632</t>
+          <t>1631572</t>
         </is>
       </c>
       <c r="AG21" t="inlineStr">
         <is>
-          <t>1683</t>
+          <t>1682984</t>
         </is>
       </c>
       <c r="AH21" t="inlineStr">
         <is>
-          <t>1412</t>
+          <t>1411602</t>
         </is>
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>1657</t>
+          <t>1656610</t>
         </is>
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
-          <t>1926</t>
+          <t>1925612</t>
         </is>
       </c>
       <c r="AK21" t="inlineStr">
         <is>
-          <t>2033</t>
+          <t>2033070</t>
         </is>
       </c>
       <c r="AL21" t="inlineStr">
         <is>
-          <t>2001</t>
+          <t>2000925</t>
         </is>
       </c>
       <c r="AM21" t="inlineStr">
         <is>
-          <t>2671</t>
+          <t>2671102</t>
         </is>
       </c>
       <c r="AN21" t="inlineStr">
         <is>
-          <t>1959</t>
+          <t>1958618</t>
         </is>
       </c>
       <c r="AO21" t="inlineStr">
         <is>
-          <t>2239</t>
+          <t>2238587</t>
         </is>
       </c>
       <c r="AP21" t="inlineStr">
         <is>
-          <t>2302</t>
+          <t>2301873</t>
         </is>
       </c>
       <c r="AQ21" t="inlineStr">
         <is>
-          <t>2630</t>
+          <t>2630124</t>
         </is>
       </c>
       <c r="AR21" t="inlineStr">
         <is>
-          <t>2455</t>
+          <t>2454639</t>
         </is>
       </c>
       <c r="AS21" t="inlineStr">
         <is>
-          <t>3030</t>
+          <t>3029780</t>
         </is>
       </c>
       <c r="AT21" t="inlineStr">
         <is>
-          <t>2951</t>
+          <t>2951077</t>
         </is>
       </c>
       <c r="AU21" t="inlineStr">
         <is>
-          <t>3540</t>
+          <t>3540462</t>
         </is>
       </c>
       <c r="AV21" t="inlineStr">
         <is>
-          <t>2525</t>
+          <t>2524523</t>
         </is>
       </c>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>2782</t>
+          <t>2782029</t>
         </is>
       </c>
     </row>
@@ -4888,238 +4888,238 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>44062</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11634</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>122131</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>100440</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>27363</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>36224</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>270571</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>339597</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>275080</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>433267</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>628</t>
+          <t>627767</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>496</t>
+          <t>495647</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>713</t>
+          <t>713169</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>593</t>
+          <t>592603</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>722</t>
+          <t>722113</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>1350</t>
+          <t>1350145</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>769</t>
+          <t>768665</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>1294</t>
+          <t>1293937</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>1264</t>
+          <t>1263935</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>968</t>
+          <t>967922</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>1473</t>
+          <t>1473105</t>
         </is>
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>1328</t>
+          <t>1328364</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>1415</t>
+          <t>1414664</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>1587</t>
+          <t>1587010</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>1977</t>
+          <t>1977459</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>1543</t>
+          <t>1543086</t>
         </is>
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>2065</t>
+          <t>2064890</t>
         </is>
       </c>
       <c r="AD22" t="inlineStr">
         <is>
-          <t>1906</t>
+          <t>1906061</t>
         </is>
       </c>
       <c r="AE22" t="inlineStr">
         <is>
-          <t>2093</t>
+          <t>2092569</t>
         </is>
       </c>
       <c r="AF22" t="inlineStr">
         <is>
-          <t>2537</t>
+          <t>2536894</t>
         </is>
       </c>
       <c r="AG22" t="inlineStr">
         <is>
-          <t>2571</t>
+          <t>2571027</t>
         </is>
       </c>
       <c r="AH22" t="inlineStr">
         <is>
-          <t>2294</t>
+          <t>2294331</t>
         </is>
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>2973</t>
+          <t>2973225</t>
         </is>
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
-          <t>3197</t>
+          <t>3196823</t>
         </is>
       </c>
       <c r="AK22" t="inlineStr">
         <is>
-          <t>3548</t>
+          <t>3548482</t>
         </is>
       </c>
       <c r="AL22" t="inlineStr">
         <is>
-          <t>3393</t>
+          <t>3393346</t>
         </is>
       </c>
       <c r="AM22" t="inlineStr">
         <is>
-          <t>3198</t>
+          <t>3197744</t>
         </is>
       </c>
       <c r="AN22" t="inlineStr">
         <is>
-          <t>3699</t>
+          <t>3698789</t>
         </is>
       </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>4175</t>
+          <t>4174804</t>
         </is>
       </c>
       <c r="AP22" t="inlineStr">
         <is>
-          <t>3783</t>
+          <t>3783355</t>
         </is>
       </c>
       <c r="AQ22" t="inlineStr">
         <is>
-          <t>5628</t>
+          <t>5627535</t>
         </is>
       </c>
       <c r="AR22" t="inlineStr">
         <is>
-          <t>5297</t>
+          <t>5297426</t>
         </is>
       </c>
       <c r="AS22" t="inlineStr">
         <is>
-          <t>5263</t>
+          <t>5263236</t>
         </is>
       </c>
       <c r="AT22" t="inlineStr">
         <is>
-          <t>5584</t>
+          <t>5583895</t>
         </is>
       </c>
       <c r="AU22" t="inlineStr">
         <is>
-          <t>5908</t>
+          <t>5907668</t>
         </is>
       </c>
       <c r="AV22" t="inlineStr">
         <is>
-          <t>6680</t>
+          <t>6680030</t>
         </is>
       </c>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>8854</t>
+          <t>8853858</t>
         </is>
       </c>
     </row>
@@ -5131,238 +5131,238 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13551</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>-608</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>47313</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>36539</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19610</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>5074</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>104288</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>167411</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>211641</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>143543</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>286389</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>353320</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>210353</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>205256</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>228392</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>318952</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>264160</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>247179</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>248139</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>146552</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>352401</t>
         </is>
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>226644</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>305733</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>349486</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>407</t>
+          <t>407220</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>292438</t>
         </is>
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>408</t>
+          <t>407958</t>
         </is>
       </c>
       <c r="AD23" t="inlineStr">
         <is>
-          <t>432</t>
+          <t>432226</t>
         </is>
       </c>
       <c r="AE23" t="inlineStr">
         <is>
-          <t>656</t>
+          <t>655763</t>
         </is>
       </c>
       <c r="AF23" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>436712</t>
         </is>
       </c>
       <c r="AG23" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>477774</t>
         </is>
       </c>
       <c r="AH23" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>403307</t>
         </is>
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>988067</t>
         </is>
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
-          <t>669</t>
+          <t>669308</t>
         </is>
       </c>
       <c r="AK23" t="inlineStr">
         <is>
-          <t>772</t>
+          <t>772314</t>
         </is>
       </c>
       <c r="AL23" t="inlineStr">
         <is>
-          <t>681</t>
+          <t>680925</t>
         </is>
       </c>
       <c r="AM23" t="inlineStr">
         <is>
-          <t>946</t>
+          <t>945792</t>
         </is>
       </c>
       <c r="AN23" t="inlineStr">
         <is>
-          <t>956</t>
+          <t>956090</t>
         </is>
       </c>
       <c r="AO23" t="inlineStr">
         <is>
-          <t>1433</t>
+          <t>1433167</t>
         </is>
       </c>
       <c r="AP23" t="inlineStr">
         <is>
-          <t>636</t>
+          <t>636089</t>
         </is>
       </c>
       <c r="AQ23" t="inlineStr">
         <is>
-          <t>1242</t>
+          <t>1242405</t>
         </is>
       </c>
       <c r="AR23" t="inlineStr">
         <is>
-          <t>1270</t>
+          <t>1269851</t>
         </is>
       </c>
       <c r="AS23" t="inlineStr">
         <is>
-          <t>1126</t>
+          <t>1126231</t>
         </is>
       </c>
       <c r="AT23" t="inlineStr">
         <is>
-          <t>1093</t>
+          <t>1093488</t>
         </is>
       </c>
       <c r="AU23" t="inlineStr">
         <is>
-          <t>1832</t>
+          <t>1831864</t>
         </is>
       </c>
       <c r="AV23" t="inlineStr">
         <is>
-          <t>1325</t>
+          <t>1324795</t>
         </is>
       </c>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>4141</t>
+          <t>4141072</t>
         </is>
       </c>
     </row>
@@ -5374,238 +5374,238 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>30511</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>12242</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>74818</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>63901</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7753</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>31150</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>166283</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>172186</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>63439</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>289724</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>341378</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>142327</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>503</t>
+          <t>502816</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>387</t>
+          <t>387347</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>494</t>
+          <t>493721</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>1031</t>
+          <t>1031193</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>505</t>
+          <t>504505</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>1047</t>
+          <t>1046758</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>1016</t>
+          <t>1015796</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>821</t>
+          <t>821370</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>1121</t>
+          <t>1120704</t>
         </is>
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>1102</t>
+          <t>1101720</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>1109</t>
+          <t>1108931</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>1238</t>
+          <t>1237524</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>1570</t>
+          <t>1570239</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>1251</t>
+          <t>1250648</t>
         </is>
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>1657</t>
+          <t>1656932</t>
         </is>
       </c>
       <c r="AD24" t="inlineStr">
         <is>
-          <t>1474</t>
+          <t>1473835</t>
         </is>
       </c>
       <c r="AE24" t="inlineStr">
         <is>
-          <t>1437</t>
+          <t>1436806</t>
         </is>
       </c>
       <c r="AF24" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2100182</t>
         </is>
       </c>
       <c r="AG24" t="inlineStr">
         <is>
-          <t>2093</t>
+          <t>2093253</t>
         </is>
       </c>
       <c r="AH24" t="inlineStr">
         <is>
-          <t>1891</t>
+          <t>1891024</t>
         </is>
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>1985</t>
+          <t>1985158</t>
         </is>
       </c>
       <c r="AJ24" t="inlineStr">
         <is>
-          <t>2528</t>
+          <t>2527515</t>
         </is>
       </c>
       <c r="AK24" t="inlineStr">
         <is>
-          <t>2776</t>
+          <t>2776168</t>
         </is>
       </c>
       <c r="AL24" t="inlineStr">
         <is>
-          <t>2712</t>
+          <t>2712421</t>
         </is>
       </c>
       <c r="AM24" t="inlineStr">
         <is>
-          <t>2252</t>
+          <t>2251952</t>
         </is>
       </c>
       <c r="AN24" t="inlineStr">
         <is>
-          <t>2743</t>
+          <t>2742699</t>
         </is>
       </c>
       <c r="AO24" t="inlineStr">
         <is>
-          <t>2742</t>
+          <t>2741637</t>
         </is>
       </c>
       <c r="AP24" t="inlineStr">
         <is>
-          <t>3147</t>
+          <t>3147266</t>
         </is>
       </c>
       <c r="AQ24" t="inlineStr">
         <is>
-          <t>4385</t>
+          <t>4385130</t>
         </is>
       </c>
       <c r="AR24" t="inlineStr">
         <is>
-          <t>4028</t>
+          <t>4027575</t>
         </is>
       </c>
       <c r="AS24" t="inlineStr">
         <is>
-          <t>4137</t>
+          <t>4137005</t>
         </is>
       </c>
       <c r="AT24" t="inlineStr">
         <is>
-          <t>4490</t>
+          <t>4490407</t>
         </is>
       </c>
       <c r="AU24" t="inlineStr">
         <is>
-          <t>4076</t>
+          <t>4075804</t>
         </is>
       </c>
       <c r="AV24" t="inlineStr">
         <is>
-          <t>5355</t>
+          <t>5355235</t>
         </is>
       </c>
       <c r="AW24" t="inlineStr">
         <is>
-          <t>4713</t>
+          <t>4712786</t>
         </is>
       </c>
     </row>
@@ -5617,238 +5617,238 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6604</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2884</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>18512</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>-13</t>
+          <t>-12906</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1515</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7848</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>35043</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>35834</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13698</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>59065</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>43606</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>26981</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>95590</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>77751</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>90297</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>206660</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>91592</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>212844</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>195895</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>165739</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>205816</t>
         </is>
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>222994</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>213437</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>248484</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>317162</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>249343</t>
         </is>
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>337135</t>
         </is>
       </c>
       <c r="AD25" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>295149</t>
         </is>
       </c>
       <c r="AE25" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>282644</t>
         </is>
       </c>
       <c r="AF25" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>420067</t>
         </is>
       </c>
       <c r="AG25" t="inlineStr">
         <is>
-          <t>422</t>
+          <t>421778</t>
         </is>
       </c>
       <c r="AH25" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>377985</t>
         </is>
       </c>
       <c r="AI25" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>400350</t>
         </is>
       </c>
       <c r="AJ25" t="inlineStr">
         <is>
-          <t>507</t>
+          <t>507076</t>
         </is>
       </c>
       <c r="AK25" t="inlineStr">
         <is>
-          <t>556</t>
+          <t>556075</t>
         </is>
       </c>
       <c r="AL25" t="inlineStr">
         <is>
-          <t>543</t>
+          <t>542934</t>
         </is>
       </c>
       <c r="AM25" t="inlineStr">
         <is>
-          <t>486</t>
+          <t>485901</t>
         </is>
       </c>
       <c r="AN25" t="inlineStr">
         <is>
-          <t>549</t>
+          <t>548987</t>
         </is>
       </c>
       <c r="AO25" t="inlineStr">
         <is>
-          <t>562</t>
+          <t>562109</t>
         </is>
       </c>
       <c r="AP25" t="inlineStr">
         <is>
-          <t>632</t>
+          <t>632108</t>
         </is>
       </c>
       <c r="AQ25" t="inlineStr">
         <is>
-          <t>981</t>
+          <t>981425</t>
         </is>
       </c>
       <c r="AR25" t="inlineStr">
         <is>
-          <t>808</t>
+          <t>808137</t>
         </is>
       </c>
       <c r="AS25" t="inlineStr">
         <is>
-          <t>879</t>
+          <t>879466</t>
         </is>
       </c>
       <c r="AT25" t="inlineStr">
         <is>
-          <t>958</t>
+          <t>957868</t>
         </is>
       </c>
       <c r="AU25" t="inlineStr">
         <is>
-          <t>833</t>
+          <t>833194</t>
         </is>
       </c>
       <c r="AV25" t="inlineStr">
         <is>
-          <t>946</t>
+          <t>946338</t>
         </is>
       </c>
       <c r="AW25" t="inlineStr">
         <is>
-          <t>1015</t>
+          <t>1015345</t>
         </is>
       </c>
     </row>
@@ -5873,7 +5873,7 @@
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>6325</t>
         </is>
       </c>
       <c r="P26" t="inlineStr"/>
@@ -5881,7 +5881,7 @@
       <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>-3927</t>
         </is>
       </c>
       <c r="T26" t="inlineStr"/>
@@ -5889,31 +5889,31 @@
       <c r="V26" t="inlineStr"/>
       <c r="W26" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>22823</t>
         </is>
       </c>
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>-734</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr"/>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>-3264</t>
         </is>
       </c>
       <c r="AB26" t="inlineStr"/>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>-600</t>
         </is>
       </c>
       <c r="AD26" t="inlineStr"/>
       <c r="AE26" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7677</t>
         </is>
       </c>
       <c r="AF26" t="inlineStr"/>
@@ -5921,7 +5921,7 @@
       <c r="AH26" t="inlineStr"/>
       <c r="AI26" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>-4062</t>
         </is>
       </c>
       <c r="AJ26" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
       <c r="AL26" t="inlineStr"/>
       <c r="AM26" t="inlineStr">
         <is>
-          <t>-33</t>
+          <t>-33400</t>
         </is>
       </c>
       <c r="AN26" t="inlineStr"/>
@@ -5937,37 +5937,37 @@
       <c r="AP26" t="inlineStr"/>
       <c r="AQ26" t="inlineStr">
         <is>
-          <t>-44</t>
+          <t>-43910</t>
         </is>
       </c>
       <c r="AR26" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>6266</t>
         </is>
       </c>
       <c r="AS26" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5687</t>
         </is>
       </c>
       <c r="AT26" t="inlineStr">
         <is>
-          <t>-13</t>
+          <t>-13097</t>
         </is>
       </c>
       <c r="AU26" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>5382</t>
         </is>
       </c>
       <c r="AV26" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>51225</t>
         </is>
       </c>
       <c r="AW26" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>21382</t>
         </is>
       </c>
     </row>
@@ -5979,238 +5979,238 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6604</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2884</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>18512</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>-13</t>
+          <t>-12906</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1515</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7848</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>35043</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>35834</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13698</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>59065</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>43606</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>26981</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>101915</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>77751</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>90297</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>206660</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>87665</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>212844</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>195895</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>165739</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>228639</t>
         </is>
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>222994</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>212703</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>248484</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>313898</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>249343</t>
         </is>
       </c>
       <c r="AC27" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>336535</t>
         </is>
       </c>
       <c r="AD27" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>295149</t>
         </is>
       </c>
       <c r="AE27" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>290321</t>
         </is>
       </c>
       <c r="AF27" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>420067</t>
         </is>
       </c>
       <c r="AG27" t="inlineStr">
         <is>
-          <t>422</t>
+          <t>421778</t>
         </is>
       </c>
       <c r="AH27" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>377985</t>
         </is>
       </c>
       <c r="AI27" t="inlineStr">
         <is>
-          <t>396</t>
+          <t>396288</t>
         </is>
       </c>
       <c r="AJ27" t="inlineStr">
         <is>
-          <t>507</t>
+          <t>507076</t>
         </is>
       </c>
       <c r="AK27" t="inlineStr">
         <is>
-          <t>556</t>
+          <t>556075</t>
         </is>
       </c>
       <c r="AL27" t="inlineStr">
         <is>
-          <t>543</t>
+          <t>542934</t>
         </is>
       </c>
       <c r="AM27" t="inlineStr">
         <is>
-          <t>453</t>
+          <t>452501</t>
         </is>
       </c>
       <c r="AN27" t="inlineStr">
         <is>
-          <t>549</t>
+          <t>548987</t>
         </is>
       </c>
       <c r="AO27" t="inlineStr">
         <is>
-          <t>562</t>
+          <t>562109</t>
         </is>
       </c>
       <c r="AP27" t="inlineStr">
         <is>
-          <t>632</t>
+          <t>632108</t>
         </is>
       </c>
       <c r="AQ27" t="inlineStr">
         <is>
-          <t>938</t>
+          <t>937515</t>
         </is>
       </c>
       <c r="AR27" t="inlineStr">
         <is>
-          <t>814</t>
+          <t>814403</t>
         </is>
       </c>
       <c r="AS27" t="inlineStr">
         <is>
-          <t>885</t>
+          <t>885153</t>
         </is>
       </c>
       <c r="AT27" t="inlineStr">
         <is>
-          <t>945</t>
+          <t>944771</t>
         </is>
       </c>
       <c r="AU27" t="inlineStr">
         <is>
-          <t>839</t>
+          <t>838576</t>
         </is>
       </c>
       <c r="AV27" t="inlineStr">
         <is>
-          <t>998</t>
+          <t>997563</t>
         </is>
       </c>
       <c r="AW27" t="inlineStr">
         <is>
-          <t>1037</t>
+          <t>1036727</t>
         </is>
       </c>
     </row>
@@ -6222,238 +6222,238 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>23907</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>9359</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>56306</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>76807</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>6237</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>23303</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>131240</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>136352</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>49741</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>230659</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>297772</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>115346</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>401</t>
+          <t>400901</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>309596</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>403424</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>825</t>
+          <t>824533</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>417</t>
+          <t>416840</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>834</t>
+          <t>833914</t>
         </is>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>820</t>
+          <t>819901</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>656</t>
+          <t>655631</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>892</t>
+          <t>892065</t>
         </is>
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>879</t>
+          <t>878726</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>896</t>
+          <t>896228</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>989</t>
+          <t>989040</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>1256</t>
+          <t>1256341</t>
         </is>
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>1001</t>
+          <t>1001305</t>
         </is>
       </c>
       <c r="AC28" t="inlineStr">
         <is>
-          <t>1320</t>
+          <t>1320397</t>
         </is>
       </c>
       <c r="AD28" t="inlineStr">
         <is>
-          <t>1179</t>
+          <t>1178686</t>
         </is>
       </c>
       <c r="AE28" t="inlineStr">
         <is>
-          <t>1146</t>
+          <t>1146485</t>
         </is>
       </c>
       <c r="AF28" t="inlineStr">
         <is>
-          <t>1680</t>
+          <t>1680115</t>
         </is>
       </c>
       <c r="AG28" t="inlineStr">
         <is>
-          <t>1671</t>
+          <t>1671475</t>
         </is>
       </c>
       <c r="AH28" t="inlineStr">
         <is>
-          <t>1513</t>
+          <t>1513039</t>
         </is>
       </c>
       <c r="AI28" t="inlineStr">
         <is>
-          <t>1589</t>
+          <t>1588870</t>
         </is>
       </c>
       <c r="AJ28" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2020439</t>
         </is>
       </c>
       <c r="AK28" t="inlineStr">
         <is>
-          <t>2220</t>
+          <t>2220093</t>
         </is>
       </c>
       <c r="AL28" t="inlineStr">
         <is>
-          <t>2169</t>
+          <t>2169487</t>
         </is>
       </c>
       <c r="AM28" t="inlineStr">
         <is>
-          <t>1799</t>
+          <t>1799451</t>
         </is>
       </c>
       <c r="AN28" t="inlineStr">
         <is>
-          <t>2194</t>
+          <t>2193712</t>
         </is>
       </c>
       <c r="AO28" t="inlineStr">
         <is>
-          <t>2180</t>
+          <t>2179528</t>
         </is>
       </c>
       <c r="AP28" t="inlineStr">
         <is>
-          <t>2515</t>
+          <t>2515158</t>
         </is>
       </c>
       <c r="AQ28" t="inlineStr">
         <is>
-          <t>3448</t>
+          <t>3447615</t>
         </is>
       </c>
       <c r="AR28" t="inlineStr">
         <is>
-          <t>3213</t>
+          <t>3213172</t>
         </is>
       </c>
       <c r="AS28" t="inlineStr">
         <is>
-          <t>3252</t>
+          <t>3251852</t>
         </is>
       </c>
       <c r="AT28" t="inlineStr">
         <is>
-          <t>3546</t>
+          <t>3545636</t>
         </is>
       </c>
       <c r="AU28" t="inlineStr">
         <is>
-          <t>3237</t>
+          <t>3237228</t>
         </is>
       </c>
       <c r="AV28" t="inlineStr">
         <is>
-          <t>4358</t>
+          <t>4357672</t>
         </is>
       </c>
       <c r="AW28" t="inlineStr">
         <is>
-          <t>3676</t>
+          <t>3676059</t>
         </is>
       </c>
     </row>
@@ -6473,202 +6473,202 @@
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13547</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>25296</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>35762</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>43133</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>49424</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>48046</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>42438</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>51775</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>45560</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>68147</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>76654</t>
         </is>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>81869</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>88496</t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>112408</t>
         </is>
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>79904</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>110004</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>90358</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>135303</t>
         </is>
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>112676</t>
         </is>
       </c>
       <c r="AC29" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>109847</t>
         </is>
       </c>
       <c r="AD29" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>87376</t>
         </is>
       </c>
       <c r="AE29" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>88249</t>
         </is>
       </c>
       <c r="AF29" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>116727</t>
         </is>
       </c>
       <c r="AG29" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>119596</t>
         </is>
       </c>
       <c r="AH29" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>81974</t>
         </is>
       </c>
       <c r="AI29" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>81683</t>
         </is>
       </c>
       <c r="AJ29" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>102040</t>
         </is>
       </c>
       <c r="AK29" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>140966</t>
         </is>
       </c>
       <c r="AL29" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>153502</t>
         </is>
       </c>
       <c r="AM29" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>63167</t>
         </is>
       </c>
       <c r="AN29" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>105702</t>
         </is>
       </c>
       <c r="AO29" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>20975</t>
         </is>
       </c>
       <c r="AP29" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34718</t>
         </is>
       </c>
       <c r="AQ29" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>103720</t>
         </is>
       </c>
       <c r="AR29" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>103400</t>
         </is>
       </c>
       <c r="AS29" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>136961</t>
         </is>
       </c>
       <c r="AT29" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>121760</t>
         </is>
       </c>
       <c r="AU29" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>122574</t>
         </is>
       </c>
       <c r="AV29" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>122918</t>
         </is>
       </c>
       <c r="AW29" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>161199</t>
         </is>
       </c>
     </row>
@@ -6680,238 +6680,238 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>23907</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>9359</t>
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>56306</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>76807</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>6237</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>23303</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>131240</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>122805</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>24445</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>194897</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>254639</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>65922</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>352855</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>267158</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>351649</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>779</t>
+          <t>778973</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>348693</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>757</t>
+          <t>757260</t>
         </is>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>738</t>
+          <t>738032</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>567</t>
+          <t>567135</t>
         </is>
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>780</t>
+          <t>779657</t>
         </is>
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>799</t>
+          <t>798822</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>786</t>
+          <t>786224</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>899</t>
+          <t>898682</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>1121</t>
+          <t>1121038</t>
         </is>
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>889</t>
+          <t>888629</t>
         </is>
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>1211</t>
+          <t>1210550</t>
         </is>
       </c>
       <c r="AD30" t="inlineStr">
         <is>
-          <t>1091</t>
+          <t>1091310</t>
         </is>
       </c>
       <c r="AE30" t="inlineStr">
         <is>
-          <t>1058</t>
+          <t>1058236</t>
         </is>
       </c>
       <c r="AF30" t="inlineStr">
         <is>
-          <t>1563</t>
+          <t>1563388</t>
         </is>
       </c>
       <c r="AG30" t="inlineStr">
         <is>
-          <t>1552</t>
+          <t>1551879</t>
         </is>
       </c>
       <c r="AH30" t="inlineStr">
         <is>
-          <t>1431</t>
+          <t>1431065</t>
         </is>
       </c>
       <c r="AI30" t="inlineStr">
         <is>
-          <t>1507</t>
+          <t>1507187</t>
         </is>
       </c>
       <c r="AJ30" t="inlineStr">
         <is>
-          <t>1918</t>
+          <t>1918399</t>
         </is>
       </c>
       <c r="AK30" t="inlineStr">
         <is>
-          <t>2079</t>
+          <t>2079127</t>
         </is>
       </c>
       <c r="AL30" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2015985</t>
         </is>
       </c>
       <c r="AM30" t="inlineStr">
         <is>
-          <t>1736</t>
+          <t>1736284</t>
         </is>
       </c>
       <c r="AN30" t="inlineStr">
         <is>
-          <t>2088</t>
+          <t>2088010</t>
         </is>
       </c>
       <c r="AO30" t="inlineStr">
         <is>
-          <t>2159</t>
+          <t>2158553</t>
         </is>
       </c>
       <c r="AP30" t="inlineStr">
         <is>
-          <t>2480</t>
+          <t>2480440</t>
         </is>
       </c>
       <c r="AQ30" t="inlineStr">
         <is>
-          <t>3344</t>
+          <t>3343895</t>
         </is>
       </c>
       <c r="AR30" t="inlineStr">
         <is>
-          <t>3110</t>
+          <t>3109772</t>
         </is>
       </c>
       <c r="AS30" t="inlineStr">
         <is>
-          <t>3115</t>
+          <t>3114891</t>
         </is>
       </c>
       <c r="AT30" t="inlineStr">
         <is>
-          <t>3424</t>
+          <t>3423876</t>
         </is>
       </c>
       <c r="AU30" t="inlineStr">
         <is>
-          <t>3115</t>
+          <t>3114654</t>
         </is>
       </c>
       <c r="AV30" t="inlineStr">
         <is>
-          <t>4235</t>
+          <t>4234754</t>
         </is>
       </c>
       <c r="AW30" t="inlineStr">
         <is>
-          <t>3515</t>
+          <t>3514860</t>
         </is>
       </c>
     </row>
